--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/99.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/99.xlsx
@@ -479,13 +479,13 @@
         <v>9.175740458584958</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.380294116708056</v>
+        <v>-8.416808549333631</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.229936103053243</v>
+        <v>-2.211358125320833</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.925827733758303</v>
+        <v>-5.931784731551288</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>9.519676409065847</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.062992248389863</v>
+        <v>-9.104573402215184</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.141405951237491</v>
+        <v>-2.124045557669362</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.840897965224026</v>
+        <v>-5.849565069705249</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>9.823295131802032</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.630307915127537</v>
+        <v>-9.675502544537174</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.239558945641912</v>
+        <v>-2.220221614344682</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.687718021975831</v>
+        <v>-5.699710571378852</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>10.04951908874748</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.27649161418377</v>
+        <v>-10.32537827299477</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.141720166505693</v>
+        <v>-2.121702035460693</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.567766343339937</v>
+        <v>-5.578122354887743</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>10.19983513676612</v>
       </c>
       <c r="E6" t="n">
-        <v>-10.94396339766065</v>
+        <v>-10.99764183931172</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.264355767224141</v>
+        <v>-2.246013450942883</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.104809422553662</v>
+        <v>-5.118844371199992</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>10.28671424540473</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.45058314842408</v>
+        <v>-11.50487692830872</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.053203106992783</v>
+        <v>-2.029610777271992</v>
       </c>
       <c r="G7" t="n">
-        <v>-4.999573492311868</v>
+        <v>-5.017732516353342</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>10.33196892087695</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.06810779655977</v>
+        <v>-12.12176005360516</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.908768822042861</v>
+        <v>-1.884456415665775</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.579847355508972</v>
+        <v>-4.596278195575338</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>10.34174467311378</v>
       </c>
       <c r="E9" t="n">
-        <v>-12.67539426387324</v>
+        <v>-12.73052595113974</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.82677172934513</v>
+        <v>-1.803716184040851</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.000905723847845</v>
+        <v>-4.016302271989715</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>10.33405728242997</v>
       </c>
       <c r="E10" t="n">
-        <v>-13.3002506016003</v>
+        <v>-13.3538112125258</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.731747795319883</v>
+        <v>-1.714557601688696</v>
       </c>
       <c r="G10" t="n">
-        <v>-3.638890457971277</v>
+        <v>-3.652925406617607</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>10.33178872570456</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.15092297874145</v>
+        <v>-14.2093932032326</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.562451227273523</v>
+        <v>-1.54430529553489</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.119610450359896</v>
+        <v>-3.140139181215722</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>10.34190856430837</v>
       </c>
       <c r="E12" t="n">
-        <v>-14.79388597129861</v>
+        <v>-14.85785496298329</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.426225816205363</v>
+        <v>-1.407687115381479</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.698417975638727</v>
+        <v>-2.717990968387107</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>10.35910245985772</v>
       </c>
       <c r="E13" t="n">
-        <v>-15.54123389441286</v>
+        <v>-15.60127519524502</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.26456206071573</v>
+        <v>-1.246599421216881</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.097206336843824</v>
+        <v>-2.115692668456341</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>10.39315666191561</v>
       </c>
       <c r="E14" t="n">
-        <v>-16.18325424116543</v>
+        <v>-16.24879430919111</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.043014112028041</v>
+        <v>-1.027028410258294</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.394293689574393</v>
+        <v>-1.412374159798817</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>10.43464973327212</v>
       </c>
       <c r="E15" t="n">
-        <v>-16.826596910505</v>
+        <v>-16.88991128704759</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.8265852537514674</v>
+        <v>-0.8077061530536984</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.229605612128321</v>
+        <v>-1.243509637746234</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>10.46174960470869</v>
       </c>
       <c r="E16" t="n">
-        <v>-17.69358229698695</v>
+        <v>-17.75141099863885</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6427693218536334</v>
+        <v>-0.6222013140892817</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.6954658407915808</v>
+        <v>-0.7148948182087023</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>10.47522062555581</v>
       </c>
       <c r="E17" t="n">
-        <v>-18.5468600423936</v>
+        <v>-18.61140509540331</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.3253202548503014</v>
+        <v>-0.3097927836800143</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.4827421042192157</v>
+        <v>-0.5008749436550063</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>10.4684988154022</v>
       </c>
       <c r="E18" t="n">
-        <v>-19.29888191762235</v>
+        <v>-19.36278544779281</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1817893387964585</v>
+        <v>-0.173737572548797</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.07750914666211041</v>
+        <v>-0.09244746420451985</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>10.42396485423356</v>
       </c>
       <c r="E19" t="n">
-        <v>-19.9701111920148</v>
+        <v>-20.03491809108134</v>
       </c>
       <c r="F19" t="n">
-        <v>0.05467074282795598</v>
+        <v>0.06133472497439455</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06159657103122907</v>
+        <v>0.04960402162820799</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>10.34389409697168</v>
       </c>
       <c r="E20" t="n">
-        <v>-20.48144417180125</v>
+        <v>-20.53829095074003</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1563848436053258</v>
+        <v>0.1604696420919443</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3041183888713628</v>
+        <v>0.2960142534123343</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>10.23115093751131</v>
       </c>
       <c r="E21" t="n">
-        <v>-21.1228622726231</v>
+        <v>-21.18234060443306</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4074035659897397</v>
+        <v>0.4086866116682289</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4335358024618249</v>
+        <v>0.4344653559635875</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>10.07866137001892</v>
       </c>
       <c r="E22" t="n">
-        <v>-21.5440023781329</v>
+        <v>-21.6046852018043</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5255223222277923</v>
+        <v>0.5246189533317132</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5955661424310268</v>
+        <v>0.6040892315809905</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>9.887729256517884</v>
       </c>
       <c r="E23" t="n">
-        <v>-21.91794473189828</v>
+        <v>-21.97945237064871</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6691710690072107</v>
+        <v>0.667102485158218</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6145892584600547</v>
+        <v>0.6314390522173562</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>9.673675973424251</v>
       </c>
       <c r="E24" t="n">
-        <v>-22.21534948325093</v>
+        <v>-22.27794378313722</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8536939852584979</v>
+        <v>0.8524502164885339</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7472928400637902</v>
+        <v>0.7705971391220626</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>9.441939469636848</v>
       </c>
       <c r="E25" t="n">
-        <v>-22.37502320870862</v>
+        <v>-22.43147721856214</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8675718262707276</v>
+        <v>0.8649795503080658</v>
       </c>
       <c r="G25" t="n">
-        <v>0.850774401724793</v>
+        <v>0.8753355618558711</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>9.194078189647598</v>
       </c>
       <c r="E26" t="n">
-        <v>-22.59933363329591</v>
+        <v>-22.65494973576756</v>
       </c>
       <c r="F26" t="n">
-        <v>1.034289210657267</v>
+        <v>1.029641443148455</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6248667161908097</v>
+        <v>0.6614073334220671</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>8.954581628482018</v>
       </c>
       <c r="E27" t="n">
-        <v>-22.47359515680397</v>
+        <v>-22.52845190571081</v>
       </c>
       <c r="F27" t="n">
-        <v>1.00078600768529</v>
+        <v>0.9935983334251827</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5168421254437279</v>
+        <v>0.5502144053872877</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>8.735102813759507</v>
       </c>
       <c r="E28" t="n">
-        <v>-22.5778360720298</v>
+        <v>-22.63330815917019</v>
       </c>
       <c r="F28" t="n">
-        <v>0.997643855003276</v>
+        <v>0.9903776269261181</v>
       </c>
       <c r="G28" t="n">
-        <v>0.07805359570327874</v>
+        <v>0.1119364754576658</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>8.537084254008025</v>
       </c>
       <c r="E29" t="n">
-        <v>-22.31079237096711</v>
+        <v>-22.37055873343959</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9593095922827021</v>
+        <v>0.954295240294321</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.1662880522318549</v>
+        <v>-0.1257280980281875</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>8.386319397876838</v>
       </c>
       <c r="E30" t="n">
-        <v>-22.14991415364798</v>
+        <v>-22.21267865347122</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8963618002196831</v>
+        <v>0.8895014335306187</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.6289438500527706</v>
+        <v>-0.5904393873952543</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>8.300636810826951</v>
       </c>
       <c r="E31" t="n">
-        <v>-21.69684192150721</v>
+        <v>-21.75571800738645</v>
       </c>
       <c r="F31" t="n">
-        <v>0.8953406005980286</v>
+        <v>0.8852595274098994</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.9137276214659961</v>
+        <v>-0.8782212961592351</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>8.281154464872467</v>
       </c>
       <c r="E32" t="n">
-        <v>-21.22786254141374</v>
+        <v>-21.2873408732237</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8319869471469161</v>
+        <v>0.8265405491647581</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.333951265776878</v>
+        <v>-1.29801289447634</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>8.344762270504761</v>
       </c>
       <c r="E33" t="n">
-        <v>-21.01483768187601</v>
+        <v>-21.07497062882806</v>
       </c>
       <c r="F33" t="n">
-        <v>0.7392672584218121</v>
+        <v>0.7323937994299059</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.74219545298758</v>
+        <v>-1.707330650520063</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>8.503682458897895</v>
       </c>
       <c r="E34" t="n">
-        <v>-20.52979404619575</v>
+        <v>-20.58648371750042</v>
       </c>
       <c r="F34" t="n">
-        <v>0.6872122623231093</v>
+        <v>0.68259067941998</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.114802391863104</v>
+        <v>-2.083511788071378</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>8.749792545429019</v>
       </c>
       <c r="E35" t="n">
-        <v>-20.14024566744303</v>
+        <v>-20.1985325996944</v>
       </c>
       <c r="F35" t="n">
-        <v>0.632879205529946</v>
+        <v>0.6303262064758095</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.31646313253421</v>
+        <v>-2.283457437070219</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>9.074848937947625</v>
       </c>
       <c r="E36" t="n">
-        <v>-19.58119124379849</v>
+        <v>-19.6408135909397</v>
       </c>
       <c r="F36" t="n">
-        <v>0.6483935843973915</v>
+        <v>0.6465606619995498</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.635169060610348</v>
+        <v>-2.604271225903874</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>9.478347535670535</v>
       </c>
       <c r="E37" t="n">
-        <v>-19.21780128612354</v>
+        <v>-19.27223908133943</v>
       </c>
       <c r="F37" t="n">
-        <v>0.5660822764314597</v>
+        <v>0.5657942457689417</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.867766912896454</v>
+        <v>-2.836502493710412</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>9.939769084967965</v>
       </c>
       <c r="E38" t="n">
-        <v>-18.52231197456536</v>
+        <v>-18.57295300195716</v>
       </c>
       <c r="F38" t="n">
-        <v>0.7366487978534669</v>
+        <v>0.737840197412064</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.922348723443609</v>
+        <v>-2.898874224448395</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>10.42871148514413</v>
       </c>
       <c r="E39" t="n">
-        <v>-18.05026899560693</v>
+        <v>-18.10731215908833</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8250218420351179</v>
+        <v>0.8283996561682831</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.853954533398432</v>
+        <v>-2.828018681468973</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>10.93772698055579</v>
       </c>
       <c r="E40" t="n">
-        <v>-17.4663391965631</v>
+        <v>-17.51671837789807</v>
       </c>
       <c r="F40" t="n">
-        <v>0.708251592989763</v>
+        <v>0.7149810366504102</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.908510159339905</v>
+        <v>-2.883281291763899</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>11.44606338251121</v>
       </c>
       <c r="E41" t="n">
-        <v>-16.90317378982626</v>
+        <v>-16.95953615355989</v>
       </c>
       <c r="F41" t="n">
-        <v>0.8616279207805839</v>
+        <v>0.8703735790788569</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.053481228706338</v>
+        <v>-3.036565973434828</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>11.92123197930032</v>
       </c>
       <c r="E42" t="n">
-        <v>-16.26310419619711</v>
+        <v>-16.3160625611919</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8395412058865921</v>
+        <v>0.8489152947212679</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.195977852835684</v>
+        <v>-3.180528935482448</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>12.35890637472315</v>
       </c>
       <c r="E43" t="n">
-        <v>-15.70410214176393</v>
+        <v>-15.75546324581203</v>
       </c>
       <c r="F43" t="n">
-        <v>0.8569277840604043</v>
+        <v>0.8701641022333894</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.199800805265468</v>
+        <v>-3.189431701414821</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>12.74916482537127</v>
       </c>
       <c r="E44" t="n">
-        <v>-15.12237184959752</v>
+        <v>-15.16984453970162</v>
       </c>
       <c r="F44" t="n">
-        <v>0.934080724706696</v>
+        <v>0.9482596886842853</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.344379105546649</v>
+        <v>-3.341079845230534</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>13.06960089657058</v>
       </c>
       <c r="E45" t="n">
-        <v>-14.59191101535931</v>
+        <v>-14.64662374893488</v>
       </c>
       <c r="F45" t="n">
-        <v>0.8948823699985682</v>
+        <v>0.9126093480462653</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.434532702914775</v>
+        <v>-3.434702902851718</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>13.31827394901591</v>
       </c>
       <c r="E46" t="n">
-        <v>-14.11353136182548</v>
+        <v>-14.1728394936985</v>
       </c>
       <c r="F46" t="n">
-        <v>0.7022029490768856</v>
+        <v>0.7220770647906257</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.462497861784702</v>
+        <v>-3.462537138693227</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>13.49682741270723</v>
       </c>
       <c r="E47" t="n">
-        <v>-13.33169831302612</v>
+        <v>-13.39564112010511</v>
       </c>
       <c r="F47" t="n">
-        <v>0.7516133000015598</v>
+        <v>0.7727049998795805</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.336811754504132</v>
+        <v>-3.338788692233232</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>13.59605278723553</v>
       </c>
       <c r="E48" t="n">
-        <v>-12.76400296950604</v>
+        <v>-12.82569390049625</v>
       </c>
       <c r="F48" t="n">
-        <v>0.6743294363268508</v>
+        <v>0.6960757513469578</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.36213226820003</v>
+        <v>-3.362106083594346</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>13.61262281244665</v>
       </c>
       <c r="E49" t="n">
-        <v>-12.35670142809994</v>
+        <v>-12.41407189915238</v>
       </c>
       <c r="F49" t="n">
-        <v>0.6299988989047663</v>
+        <v>0.6558823816228587</v>
       </c>
       <c r="G49" t="n">
-        <v>-3.495372634220276</v>
+        <v>-3.494063403936103</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>13.55936965719266</v>
       </c>
       <c r="E50" t="n">
-        <v>-11.80569877070306</v>
+        <v>-11.8639464260459</v>
       </c>
       <c r="F50" t="n">
-        <v>0.5828666086745525</v>
+        <v>0.6073623072914219</v>
       </c>
       <c r="G50" t="n">
-        <v>-3.633692813743112</v>
+        <v>-3.636206535888723</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>13.43595329539785</v>
       </c>
       <c r="E51" t="n">
-        <v>-11.34399871098959</v>
+        <v>-11.39509796898084</v>
       </c>
       <c r="F51" t="n">
-        <v>0.585039930946279</v>
+        <v>0.6112114443268895</v>
       </c>
       <c r="G51" t="n">
-        <v>-3.808592887405731</v>
+        <v>-3.810556732831989</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>13.23522605908368</v>
       </c>
       <c r="E52" t="n">
-        <v>-10.88139528238004</v>
+        <v>-10.93165663298942</v>
       </c>
       <c r="F52" t="n">
-        <v>0.5307723356673244</v>
+        <v>0.5561452185745895</v>
       </c>
       <c r="G52" t="n">
-        <v>-3.869485187922598</v>
+        <v>-3.869733941676591</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>12.97525533494594</v>
       </c>
       <c r="E53" t="n">
-        <v>-10.2796075822601</v>
+        <v>-10.33096868630819</v>
       </c>
       <c r="F53" t="n">
-        <v>0.5061588063248794</v>
+        <v>0.532657627276533</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.024864638048204</v>
+        <v>-4.025100299499354</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>12.66143202616614</v>
       </c>
       <c r="E54" t="n">
-        <v>-9.853400755550549</v>
+        <v>-9.900074815181302</v>
       </c>
       <c r="F54" t="n">
-        <v>0.485630075469053</v>
+        <v>0.5167112024153107</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.094410950743453</v>
+        <v>-4.094554966074711</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>12.28750531364873</v>
       </c>
       <c r="E55" t="n">
-        <v>-9.370936303530101</v>
+        <v>-9.414219456724847</v>
       </c>
       <c r="F55" t="n">
-        <v>0.3986579076914667</v>
+        <v>0.4288356657416453</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.21249043007298</v>
+        <v>-4.212503522375822</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>11.87210614541477</v>
       </c>
       <c r="E56" t="n">
-        <v>-9.030942291033316</v>
+        <v>-9.076948643219142</v>
       </c>
       <c r="F56" t="n">
-        <v>0.3562912156956412</v>
+        <v>0.3908156182892728</v>
       </c>
       <c r="G56" t="n">
-        <v>-4.480057823249336</v>
+        <v>-4.475383871134839</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>11.42811868318409</v>
       </c>
       <c r="E57" t="n">
-        <v>-8.517226512129669</v>
+        <v>-8.561151188163659</v>
       </c>
       <c r="F57" t="n">
-        <v>0.3248435042698151</v>
+        <v>0.3600487066112165</v>
       </c>
       <c r="G57" t="n">
-        <v>-4.465145690312609</v>
+        <v>-4.459529092393509</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>10.9562719246181</v>
       </c>
       <c r="E58" t="n">
-        <v>-8.398479325355213</v>
+        <v>-8.446816107446866</v>
       </c>
       <c r="F58" t="n">
-        <v>0.280447505333522</v>
+        <v>0.3160716613658587</v>
       </c>
       <c r="G58" t="n">
-        <v>-4.536629663828434</v>
+        <v>-4.528564805277931</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>10.47316787635459</v>
       </c>
       <c r="E59" t="n">
-        <v>-7.858880063733474</v>
+        <v>-7.902294139956638</v>
       </c>
       <c r="F59" t="n">
-        <v>0.2904107477960756</v>
+        <v>0.3219239207361102</v>
       </c>
       <c r="G59" t="n">
-        <v>-4.772186376556769</v>
+        <v>-4.764540471697202</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>10.00110514059126</v>
       </c>
       <c r="E60" t="n">
-        <v>-7.767901651286319</v>
+        <v>-7.809783928077001</v>
       </c>
       <c r="F60" t="n">
-        <v>0.3958430625804956</v>
+        <v>0.4305507574139114</v>
       </c>
       <c r="G60" t="n">
-        <v>-4.82953066300353</v>
+        <v>-4.822997603885508</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>9.548744040284753</v>
       </c>
       <c r="E61" t="n">
-        <v>-7.445961924408276</v>
+        <v>-7.481599172743453</v>
       </c>
       <c r="F61" t="n">
-        <v>0.3489726184071162</v>
+        <v>0.3839421592973666</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.946929342585287</v>
+        <v>-4.937306499996619</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>9.125494581681123</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.163927536591812</v>
+        <v>-7.19766640101494</v>
       </c>
       <c r="F62" t="n">
-        <v>0.3185591989057866</v>
+        <v>0.3550998161370441</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.139058886787617</v>
+        <v>-5.12868978293697</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>8.757837208134051</v>
       </c>
       <c r="E63" t="n">
-        <v>-6.986539925389266</v>
+        <v>-7.017922175300884</v>
       </c>
       <c r="F63" t="n">
-        <v>0.2833278119587018</v>
+        <v>0.3206146904519376</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.085930321855892</v>
+        <v>-5.076307479267224</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>8.453882539309484</v>
       </c>
       <c r="E64" t="n">
-        <v>-6.772506958532728</v>
+        <v>-6.80149331702431</v>
       </c>
       <c r="F64" t="n">
-        <v>0.08082916390572467</v>
+        <v>0.1184040730614785</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.075338648856937</v>
+        <v>-5.065650344754059</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>8.210193801915745</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.714521149246724</v>
+        <v>-6.743481323132621</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.006182280780386784</v>
+        <v>0.03213888963734542</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.135720349562977</v>
+        <v>-5.124932292021395</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>8.044638317176481</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.455398291403281</v>
+        <v>-6.47889897500418</v>
       </c>
       <c r="F66" t="n">
-        <v>0.03754601071097828</v>
+        <v>0.07387715109676812</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.101497069934705</v>
+        <v>-5.092253904128446</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>7.958018885062255</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.33593102797253</v>
+        <v>-6.360164880532565</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.1022666913358144</v>
+        <v>-0.06124850653268663</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.048329228094455</v>
+        <v>-5.04267335326683</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>7.934289377317393</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.114147417833691</v>
+        <v>-6.142361330457611</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.136411417147036</v>
+        <v>-0.09573363221779309</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.030903373012118</v>
+        <v>-5.025784282601003</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>7.977602623713079</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.138158701245417</v>
+        <v>-6.165233583522106</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.2120587429665292</v>
+        <v>-0.1729651266811352</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.927133780688597</v>
+        <v>-4.919239122075036</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>8.083275618384633</v>
       </c>
       <c r="E70" t="n">
-        <v>-6.282278770927137</v>
+        <v>-6.305308131625734</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.2493194368540816</v>
+        <v>-0.2105924050482559</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.858176621621226</v>
+        <v>-4.850753285909967</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>8.23154351738407</v>
       </c>
       <c r="E71" t="n">
-        <v>-6.302113609732352</v>
+        <v>-6.325404816487783</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.2443443617742257</v>
+        <v>-0.2075549907889754</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.798357889937379</v>
+        <v>-4.791013108043171</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>8.415386574842161</v>
       </c>
       <c r="E72" t="n">
-        <v>-6.405359509942204</v>
+        <v>-6.430941869694937</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.3491220614165594</v>
+        <v>-0.3124767057625681</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.667264661583176</v>
+        <v>-4.664829493254615</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>8.632253944471245</v>
       </c>
       <c r="E73" t="n">
-        <v>-6.501312997469214</v>
+        <v>-6.528374787443062</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.3500647072211637</v>
+        <v>-0.3128432902421365</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.425201074342503</v>
+        <v>-4.420867522101892</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>8.866817720122436</v>
       </c>
       <c r="E74" t="n">
-        <v>-6.80157187084136</v>
+        <v>-6.822218432422762</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.3544637209759837</v>
+        <v>-0.3189050264578556</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.121800048288343</v>
+        <v>-4.123410401537876</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>9.105822003873712</v>
       </c>
       <c r="E75" t="n">
-        <v>-7.034497030698509</v>
+        <v>-7.057657314425522</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.4865257797404745</v>
+        <v>-0.4526428999860874</v>
       </c>
       <c r="G75" t="n">
-        <v>-3.863973328426232</v>
+        <v>-3.863672205460872</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>9.353812610364198</v>
       </c>
       <c r="E76" t="n">
-        <v>-7.313441635044324</v>
+        <v>-7.334206027351302</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.5857392506750746</v>
+        <v>-0.5512148480814431</v>
       </c>
       <c r="G76" t="n">
-        <v>-3.507928152645492</v>
+        <v>-3.506815306903944</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>9.603659990955249</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.825088830098979</v>
+        <v>-7.842986008083618</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.4607077585365907</v>
+        <v>-0.4289982010539302</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.383800029403087</v>
+        <v>-3.383616737163302</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>9.841162803006799</v>
       </c>
       <c r="E78" t="n">
-        <v>-8.220253806770797</v>
+        <v>-8.239656599582235</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.5504816791223064</v>
+        <v>-0.5180520449833509</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.393671625745748</v>
+        <v>-3.39490230221287</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>10.0740299892777</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.695321107685668</v>
+        <v>-8.710992594187214</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.5887766649343551</v>
+        <v>-0.5585465376728096</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.127203986008097</v>
+        <v>-3.126510093957486</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>10.30006611532812</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.27050524843122</v>
+        <v>-9.286556411715177</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.6572625010994242</v>
+        <v>-0.6264563125128427</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.756639446375883</v>
+        <v>-2.755840815902537</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>10.50276894548126</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.848608972710476</v>
+        <v>-9.861858383186304</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.6594358233711507</v>
+        <v>-0.6360398781929862</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.587054847667005</v>
+        <v>-2.590851615491105</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>10.68735614223632</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.7418837032986</v>
+        <v>-10.75823598954792</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.6623684992076974</v>
+        <v>-0.6345866325775547</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.200347498630942</v>
+        <v>-2.201944759577632</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>10.85320198312802</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.55989078484965</v>
+        <v>-11.57156911898447</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.7253424758763997</v>
+        <v>-0.6992887932213648</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.967684184830628</v>
+        <v>-1.971402398837678</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>10.9867868657883</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.50925294081173</v>
+        <v>-12.52161207469432</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.6259849896105406</v>
+        <v>-0.6017380447476639</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.733803286866034</v>
+        <v>-1.739838838476069</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>11.08523860711475</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.6872852582074</v>
+        <v>-13.69459076319309</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.7222788770114358</v>
+        <v>-0.6976391630633073</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.578227452197803</v>
+        <v>-1.58465577289309</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>11.15127295781225</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.80243524505426</v>
+        <v>-14.81231993369977</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.7743993346243473</v>
+        <v>-0.7531374348093841</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.328452498583353</v>
+        <v>-1.328439406280511</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>11.17522775288089</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.93308651846572</v>
+        <v>-15.94310213013964</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.8004530172793821</v>
+        <v>-0.7780520871171889</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.250239081406881</v>
+        <v>-1.249584466264795</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>11.14600545673822</v>
       </c>
       <c r="E88" t="n">
-        <v>-17.28165917267772</v>
+        <v>-17.28748524744229</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.980694750501425</v>
+        <v>-0.9595768660177209</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.085053496452823</v>
+        <v>-1.087554126295593</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>11.06998375281012</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.78531015404996</v>
+        <v>-18.78606950761478</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.9903045007872519</v>
+        <v>-0.972184753654303</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.124579158731994</v>
+        <v>-1.127459465357174</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>10.9407458160301</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.3475753752446</v>
+        <v>-20.34768011366734</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.057651306605091</v>
+        <v>-1.046247910829947</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.04823794086189</v>
+        <v>-1.052885708370702</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>10.7454030646919</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.98957272074536</v>
+        <v>-21.99225664282791</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.167888496532424</v>
+        <v>-1.15844894618354</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.072930024021385</v>
+        <v>-1.070756701749659</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>10.49133279510031</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.64285563129569</v>
+        <v>-23.64603706088623</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.29923047864062</v>
+        <v>-1.292527219585657</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.262493476866737</v>
+        <v>-1.260071400841017</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>10.1776188027776</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.70188209921395</v>
+        <v>-25.70344008325211</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.311982381608461</v>
+        <v>-1.307059675739972</v>
       </c>
       <c r="G93" t="n">
-        <v>-1.507974155149101</v>
+        <v>-1.500171142655432</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>9.794712601811044</v>
       </c>
       <c r="E94" t="n">
-        <v>-27.68739528667591</v>
+        <v>-27.69340465368026</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.314888872839325</v>
+        <v>-1.310057813090728</v>
       </c>
       <c r="G94" t="n">
-        <v>-1.499935481204281</v>
+        <v>-1.484787686816404</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>9.351775522716267</v>
       </c>
       <c r="E95" t="n">
-        <v>-29.99302837092092</v>
+        <v>-30.00492927420405</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.621013097884564</v>
+        <v>-1.619782421417441</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.747366912610062</v>
+        <v>-1.731891810651142</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>8.852100968679622</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.12120838244918</v>
+        <v>-32.13375080857156</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.643374751138232</v>
+        <v>-1.634720738959851</v>
       </c>
       <c r="G96" t="n">
-        <v>-2.044850217779762</v>
+        <v>-2.019071473484403</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>8.301063777106084</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.50123193144088</v>
+        <v>-34.51297572708991</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.767136289901068</v>
+        <v>-1.767646889711896</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.206815096234755</v>
+        <v>-2.179229614147238</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>7.695472005506734</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.59006957292975</v>
+        <v>-36.59793804693763</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.988684238588757</v>
+        <v>-1.987898700418253</v>
       </c>
       <c r="G98" t="n">
-        <v>-2.450305744485176</v>
+        <v>-2.417444064352444</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>7.071662746058995</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.87836844821231</v>
+        <v>-38.89182733553361</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.036562790080949</v>
+        <v>-2.039770404277172</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.708315756587072</v>
+        <v>-2.676697845224303</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>6.412028984742649</v>
       </c>
       <c r="E100" t="n">
-        <v>-41.20521106306092</v>
+        <v>-41.22356647164502</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.434189119687011</v>
+        <v>-2.441337517038594</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.886436536748755</v>
+        <v>-2.854857902294512</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>5.770459607469773</v>
       </c>
       <c r="E101" t="n">
-        <v>-43.55018651734532</v>
+        <v>-43.57160552479439</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.607662132339882</v>
+        <v>-2.614849806599989</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.062161425490402</v>
+        <v>-3.036592158040511</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>5.10077281357874</v>
       </c>
       <c r="E102" t="n">
-        <v>-45.88131031522317</v>
+        <v>-45.90805788992882</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.925045737829005</v>
+        <v>-2.934537657389257</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.417211586255172</v>
+        <v>-3.388840565997151</v>
       </c>
     </row>
   </sheetData>
